--- a/IEDC_Classification_fill/Official_classifications/EXIOBASEv3_163Industries.xlsx
+++ b/IEDC_Classification_fill/Official_classifications/EXIOBASEv3_163Industries.xlsx
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,6 +2047,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
